--- a/target/classes/examples/森林、草原火灾.xlsx
+++ b/target/classes/examples/森林、草原火灾.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="11_DA2999F060C437889E9129E5EE2FD714931B9302" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC91BBB1-2C0F-4B89-A0CD-29CB1CC4D65E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="森林火灾与草原火灾" sheetId="1" r:id="rId1"/>
@@ -16,19 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区县ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>植被类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +35,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
+    <t>年份</t>
+  </si>
+  <si>
+    <t>区县代码</t>
+  </si>
+  <si>
+    <t>PM10排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM25排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CO排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VOC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO2 排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOX排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH3排放量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃烧比率</t>
+    <t>OC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC排放量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1117170136</t>
+  </si>
+  <si>
+    <t>草原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,10 +108,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -101,15 +135,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -119,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -167,7 +200,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +233,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,6 +285,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -410,57 +477,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.89453125" customWidth="1"/>
+    <col min="3" max="3" width="10.1015625" customWidth="1"/>
+    <col min="4" max="4" width="12.1015625" customWidth="1"/>
+    <col min="5" max="5" width="18.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.47265625" customWidth="1"/>
+    <col min="7" max="7" width="13.3671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="D2" s="3"/>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C2" s="1">
+        <v>650109</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>323252</v>
+      </c>
+      <c r="G2" s="1">
+        <v>34342</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -470,12 +604,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -483,12 +617,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/classes/examples/森林、草原火灾.xlsx
+++ b/target/classes/examples/森林、草原火灾.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_DA2999F060C437889E9129E5EE2FD714931B9302" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DC91BBB1-2C0F-4B89-A0CD-29CB1CC4D65E}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="11_DA2999F060C437889E9129E5EE2FD714931B9302" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFC0D51C-C5DA-4ECF-807E-B726CCAF1BE4}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -480,8 +480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>

--- a/target/classes/examples/森林、草原火灾.xlsx
+++ b/target/classes/examples/森林、草原火灾.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_DA2999F060C437889E9129E5EE2FD714931B9302" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CFC0D51C-C5DA-4ECF-807E-B726CCAF1BE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F0E479C-E087-4380-8D57-4AD124ACFC5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="2040" windowWidth="28800" windowHeight="15435" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="森林火灾与草原火灾" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>植被类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,9 +75,6 @@
   <si>
     <t>BC排放量</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1117170136</t>
   </si>
   <si>
     <t>草原</t>
@@ -480,23 +477,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="17.89453125" customWidth="1"/>
-    <col min="3" max="3" width="10.1015625" customWidth="1"/>
-    <col min="4" max="4" width="12.1015625" customWidth="1"/>
-    <col min="5" max="5" width="18.62890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.47265625" customWidth="1"/>
-    <col min="7" max="7" width="13.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7890625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="10.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
@@ -546,18 +543,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1804002000</v>
       </c>
       <c r="B2" s="1">
         <v>2015</v>
       </c>
       <c r="C2" s="1">
-        <v>650109</v>
+        <v>210101</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1">
         <v>0.9</v>
@@ -609,7 +606,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,7 +619,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
